--- a/DBteam_project/Data relationship.xlsx
+++ b/DBteam_project/Data relationship.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungh\OneDrive\SeoulTech\2020_1st_Smst\Database Practice Web Programming\Team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studying\DB\Crawling_01\DBteam_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_AD4D066CA252ABDACC1048D2492246A149B8DF5B" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{22446C49-DB12-4AA4-A299-EB906309721E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58540900-8677-4AEB-91E6-9945DF7F50DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1770" windowWidth="19020" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="1410" windowWidth="19485" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,118 @@
   </si>
   <si>
     <t>피피티 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부정보2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부정보1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번화가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 지출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑티비티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -295,8 +413,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,10 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,9 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,12 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -447,8 +566,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2038350" y="352425"/>
-          <a:ext cx="695325" cy="1476375"/>
+          <a:off x="2724150" y="561975"/>
+          <a:ext cx="695325" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -799,54 +918,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q31"/>
+  <dimension ref="B2:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
-      <c r="N3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
@@ -861,32 +980,32 @@
     </row>
     <row r="7" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="N8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="6" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="N9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
@@ -900,7 +1019,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
@@ -924,23 +1043,23 @@
     </row>
     <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="N14" s="6" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="N14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O14" t="s">
@@ -954,18 +1073,18 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
@@ -989,15 +1108,15 @@
     </row>
     <row r="17" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O19" t="s">
@@ -1012,130 +1131,257 @@
     </row>
     <row r="21" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="B30:J31"/>
-    <mergeCell ref="F3:L3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N13:Q13"/>
@@ -1144,6 +1390,11 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="B24:J25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="B30:J31"/>
+    <mergeCell ref="F3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
